--- a/my_workplan.xlsx
+++ b/my_workplan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
   <si>
     <t xml:space="preserve">id_staff</t>
   </si>
@@ -225,6 +225,198 @@
     <t xml:space="preserve">id_calendar</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-09-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-25</t>
+  </si>
+  <si>
     <t xml:space="preserve">2018-12-26</t>
   </si>
   <si>
@@ -646,6 +838,189 @@
   </si>
   <si>
     <t xml:space="preserve">2019-07-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-25</t>
   </si>
 </sst>
 </file>
@@ -1645,19 +2020,19 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
         <v>75</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I2" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -1671,22 +2046,22 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
         <v>25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
       </c>
       <c r="H3" t="n">
         <v>75</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1700,22 +2075,22 @@
         <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
         <v>75</v>
-      </c>
-      <c r="H4" t="n">
-        <v>75</v>
-      </c>
-      <c r="I4" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -1729,13 +2104,13 @@
         <v>100</v>
       </c>
       <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
         <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>25</v>
@@ -1761,16 +2136,16 @@
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -1787,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25</v>
+      </c>
+      <c r="F7" t="n">
         <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>25</v>
       </c>
       <c r="G7" t="n">
         <v>75</v>
       </c>
       <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -1816,22 +2191,22 @@
         <v>60</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G8" t="n">
+        <v>75</v>
+      </c>
+      <c r="H8" t="n">
         <v>100</v>
       </c>
-      <c r="E8" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" t="n">
-        <v>25</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>100</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1845,22 +2220,22 @@
         <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
         <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I9" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -1874,19 +2249,19 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25</v>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" t="n">
-        <v>50</v>
       </c>
       <c r="G10" t="n">
         <v>50</v>
       </c>
       <c r="H10" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1903,22 +2278,22 @@
         <v>100</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" t="n">
+        <v>75</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" t="n">
         <v>25</v>
-      </c>
-      <c r="E11" t="n">
-        <v>25</v>
-      </c>
-      <c r="F11" t="n">
-        <v>50</v>
-      </c>
-      <c r="G11" t="n">
-        <v>75</v>
-      </c>
-      <c r="H11" t="n">
-        <v>25</v>
-      </c>
-      <c r="I11" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -1932,16 +2307,16 @@
         <v>100</v>
       </c>
       <c r="D12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" t="n">
-        <v>25</v>
-      </c>
-      <c r="F12" t="n">
-        <v>75</v>
-      </c>
       <c r="G12" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H12" t="n">
         <v>75</v>
@@ -1961,19 +2336,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
+        <v>75</v>
+      </c>
+      <c r="F13" t="n">
         <v>25</v>
       </c>
-      <c r="F13" t="n">
-        <v>50</v>
-      </c>
       <c r="G13" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1990,13 +2365,13 @@
         <v>60</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G14" t="n">
         <v>25</v>
@@ -2005,7 +2380,7 @@
         <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -2019,22 +2394,22 @@
         <v>100</v>
       </c>
       <c r="D15" t="n">
+        <v>25</v>
+      </c>
+      <c r="E15" t="n">
+        <v>75</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
         <v>50</v>
       </c>
-      <c r="E15" t="n">
+      <c r="H15" t="n">
         <v>25</v>
       </c>
-      <c r="F15" t="n">
-        <v>50</v>
-      </c>
-      <c r="G15" t="n">
-        <v>75</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -2048,22 +2423,22 @@
         <v>40</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>50</v>
       </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>25</v>
+      </c>
+      <c r="H16" t="n">
         <v>100</v>
       </c>
-      <c r="G16" t="n">
-        <v>75</v>
-      </c>
-      <c r="H16" t="n">
-        <v>75</v>
-      </c>
       <c r="I16" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2080,19 +2455,19 @@
         <v>75</v>
       </c>
       <c r="E17" t="n">
+        <v>75</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
         <v>50</v>
       </c>
-      <c r="F17" t="n">
-        <v>50</v>
-      </c>
-      <c r="G17" t="n">
-        <v>25</v>
-      </c>
       <c r="H17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -2112,16 +2487,16 @@
         <v>25</v>
       </c>
       <c r="F18" t="n">
+        <v>75</v>
+      </c>
+      <c r="G18" t="n">
+        <v>50</v>
+      </c>
+      <c r="H18" t="n">
+        <v>25</v>
+      </c>
+      <c r="I18" t="n">
         <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>75</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -2135,22 +2510,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>75</v>
+      </c>
+      <c r="F19" t="n">
         <v>100</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
+        <v>100</v>
+      </c>
+      <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="n">
-        <v>25</v>
-      </c>
-      <c r="G19" t="n">
-        <v>75</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2212,7 +2587,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -2220,7 +2595,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -2228,7 +2603,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -2236,7 +2611,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -2244,7 +2619,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -2252,7 +2627,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -2260,7 +2635,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -2268,7 +2643,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -2276,7 +2651,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -2284,7 +2659,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -2292,7 +2667,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -2300,7 +2675,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -2308,7 +2683,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -2316,7 +2691,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -2324,7 +2699,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -2332,7 +2707,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -2340,7 +2715,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
@@ -2348,7 +2723,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -2356,7 +2731,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -2364,7 +2739,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
@@ -2372,7 +2747,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -2380,7 +2755,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
@@ -2388,7 +2763,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
@@ -2396,7 +2771,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -2404,7 +2779,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -2412,7 +2787,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
@@ -2420,7 +2795,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
@@ -2428,7 +2803,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
@@ -2436,7 +2811,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -2444,7 +2819,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
@@ -2452,7 +2827,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -2460,7 +2835,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -2468,7 +2843,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
@@ -2476,7 +2851,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -2484,7 +2859,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
@@ -2492,7 +2867,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
@@ -2500,7 +2875,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
@@ -2508,7 +2883,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44">
@@ -2516,7 +2891,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
@@ -2524,7 +2899,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46">
@@ -2532,7 +2907,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47">
@@ -2540,7 +2915,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48">
@@ -2548,7 +2923,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49">
@@ -2556,7 +2931,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50">
@@ -2564,7 +2939,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51">
@@ -2572,7 +2947,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52">
@@ -2580,7 +2955,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53">
@@ -2588,7 +2963,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54">
@@ -2596,7 +2971,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
@@ -2604,7 +2979,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
@@ -2612,7 +2987,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
@@ -2620,7 +2995,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58">
@@ -2628,7 +3003,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
@@ -2636,7 +3011,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60">
@@ -2644,7 +3019,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61">
@@ -2652,7 +3027,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
@@ -2660,7 +3035,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -2668,7 +3043,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -2676,7 +3051,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -2684,7 +3059,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -2692,7 +3067,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
@@ -2700,7 +3075,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
@@ -2708,7 +3083,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -2716,7 +3091,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
@@ -2724,7 +3099,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
@@ -2732,7 +3107,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72">
@@ -2740,7 +3115,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73">
@@ -2748,7 +3123,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
@@ -2756,7 +3131,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
@@ -2764,7 +3139,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
@@ -2772,7 +3147,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77">
@@ -2780,7 +3155,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78">
@@ -2788,7 +3163,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79">
@@ -2796,7 +3171,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
@@ -2804,7 +3179,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
@@ -2812,7 +3187,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
@@ -2820,7 +3195,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
@@ -2828,7 +3203,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -2836,7 +3211,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
@@ -2844,7 +3219,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86">
@@ -2852,7 +3227,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87">
@@ -2860,7 +3235,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88">
@@ -2868,7 +3243,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
@@ -2876,7 +3251,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90">
@@ -2884,7 +3259,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91">
@@ -2892,7 +3267,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92">
@@ -2900,7 +3275,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93">
@@ -2908,7 +3283,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94">
@@ -2916,7 +3291,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95">
@@ -2924,7 +3299,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96">
@@ -2932,7 +3307,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97">
@@ -2940,7 +3315,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98">
@@ -2948,7 +3323,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99">
@@ -2956,7 +3331,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100">
@@ -2964,7 +3339,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101">
@@ -2972,7 +3347,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102">
@@ -2980,7 +3355,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103">
@@ -2988,7 +3363,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104">
@@ -2996,7 +3371,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105">
@@ -3004,7 +3379,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106">
@@ -3012,7 +3387,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107">
@@ -3020,7 +3395,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108">
@@ -3028,7 +3403,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109">
@@ -3036,7 +3411,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110">
@@ -3044,7 +3419,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111">
@@ -3052,7 +3427,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112">
@@ -3060,7 +3435,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113">
@@ -3068,7 +3443,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114">
@@ -3076,7 +3451,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115">
@@ -3084,7 +3459,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116">
@@ -3092,7 +3467,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117">
@@ -3100,7 +3475,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118">
@@ -3108,7 +3483,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119">
@@ -3116,7 +3491,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120">
@@ -3124,7 +3499,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121">
@@ -3132,7 +3507,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122">
@@ -3140,7 +3515,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123">
@@ -3148,7 +3523,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124">
@@ -3156,7 +3531,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125">
@@ -3164,7 +3539,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126">
@@ -3172,7 +3547,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127">
@@ -3180,7 +3555,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128">
@@ -3188,7 +3563,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129">
@@ -3196,7 +3571,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130">
@@ -3204,7 +3579,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131">
@@ -3212,7 +3587,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132">
@@ -3220,7 +3595,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133">
@@ -3228,7 +3603,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134">
@@ -3236,7 +3611,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135">
@@ -3244,7 +3619,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136">
@@ -3252,7 +3627,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137">
@@ -3260,7 +3635,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138">
@@ -3268,7 +3643,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139">
@@ -3276,7 +3651,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="140">
@@ -3284,7 +3659,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="141">
@@ -3292,7 +3667,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="142">
@@ -3300,7 +3675,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143">
@@ -3308,7 +3683,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="144">
@@ -3316,7 +3691,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="145">
@@ -3324,7 +3699,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="146">
@@ -3332,7 +3707,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147">
@@ -3340,7 +3715,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148">
@@ -3348,7 +3723,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>203</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149">
@@ -3356,7 +3731,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150">
@@ -3364,7 +3739,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151">
@@ -3372,7 +3747,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
     </row>
     <row r="152">
@@ -3380,7 +3755,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153">
@@ -3388,7 +3763,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154">
@@ -3396,7 +3771,1039 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
         <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
